--- a/桌面/基金筛选/公募基金池重检（2021年10月）v2(707只）.xlsx
+++ b/桌面/基金筛选/公募基金池重检（2021年10月）v2(707只）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\基金筛选\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84388705-303D-44FB-8B29-3A5DAC096B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{751B7E80-23CC-42A3-A57A-E882AE97EDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="689" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="689" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="27" r:id="rId1"/>
@@ -6528,11 +6528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5148A92F-9FDD-4774-B097-8B36D7568654}">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H708"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -6574,7 +6574,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -6624,7 +6624,7 @@
       </c>
       <c r="H3" s="31"/>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="23">
         <v>3</v>
       </c>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="H4" s="31"/>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="23">
         <v>4</v>
       </c>
@@ -6672,7 +6672,7 @@
       </c>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A6" s="23">
         <v>5</v>
       </c>
@@ -6696,7 +6696,7 @@
       </c>
       <c r="H6" s="31"/>
     </row>
-    <row r="7" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A7" s="23">
         <v>6</v>
       </c>
@@ -6814,7 +6814,7 @@
       </c>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="23">
         <v>11</v>
       </c>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="H12" s="31"/>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="23">
         <v>12</v>
       </c>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="H13" s="31"/>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="23">
         <v>13</v>
       </c>
@@ -6886,7 +6886,7 @@
       </c>
       <c r="H14" s="31"/>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="23">
         <v>14</v>
       </c>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="H15" s="31"/>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="23">
         <v>15</v>
       </c>
@@ -6934,7 +6934,7 @@
       </c>
       <c r="H16" s="31"/>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="23">
         <v>16</v>
       </c>
@@ -6958,7 +6958,7 @@
       </c>
       <c r="H17" s="31"/>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="23">
         <v>17</v>
       </c>
@@ -6982,7 +6982,7 @@
       </c>
       <c r="H18" s="31"/>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="23">
         <v>18</v>
       </c>
@@ -7006,7 +7006,7 @@
       </c>
       <c r="H19" s="31"/>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="23">
         <v>19</v>
       </c>
@@ -7030,7 +7030,7 @@
       </c>
       <c r="H20" s="31"/>
     </row>
-    <row r="21" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A21" s="23">
         <v>20</v>
       </c>
@@ -7054,7 +7054,7 @@
       </c>
       <c r="H21" s="31"/>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="23">
         <v>21</v>
       </c>
@@ -7078,7 +7078,7 @@
       </c>
       <c r="H22" s="31"/>
     </row>
-    <row r="23" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A23" s="23">
         <v>22</v>
       </c>
@@ -7102,7 +7102,7 @@
       </c>
       <c r="H23" s="31"/>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="23">
         <v>23</v>
       </c>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="H24" s="31"/>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="23">
         <v>24</v>
       </c>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="H25" s="31"/>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="23">
         <v>25</v>
       </c>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="H26" s="31"/>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="23">
         <v>26</v>
       </c>
@@ -7198,7 +7198,7 @@
       </c>
       <c r="H27" s="31"/>
     </row>
-    <row r="28" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A28" s="23">
         <v>27</v>
       </c>
@@ -7222,7 +7222,7 @@
       </c>
       <c r="H28" s="31"/>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="23">
         <v>28</v>
       </c>
@@ -7246,7 +7246,7 @@
       </c>
       <c r="H29" s="31"/>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="23">
         <v>29</v>
       </c>
@@ -7292,7 +7292,7 @@
       </c>
       <c r="H31" s="31"/>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="23">
         <v>31</v>
       </c>
@@ -7314,7 +7314,7 @@
       </c>
       <c r="H32" s="31"/>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="23">
         <v>32</v>
       </c>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="H33" s="31"/>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="23">
         <v>33</v>
       </c>
@@ -7362,7 +7362,7 @@
       </c>
       <c r="H34" s="31"/>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="23">
         <v>34</v>
       </c>
@@ -7386,7 +7386,7 @@
       </c>
       <c r="H35" s="31"/>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="23">
         <v>35</v>
       </c>
@@ -7410,7 +7410,7 @@
       </c>
       <c r="H36" s="31"/>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="23">
         <v>36</v>
       </c>
@@ -7434,7 +7434,7 @@
       </c>
       <c r="H37" s="31"/>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="23">
         <v>37</v>
       </c>
@@ -7458,7 +7458,7 @@
       </c>
       <c r="H38" s="31"/>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="23">
         <v>38</v>
       </c>
@@ -7482,7 +7482,7 @@
       </c>
       <c r="H39" s="31"/>
     </row>
-    <row r="40" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A40" s="23">
         <v>39</v>
       </c>
@@ -7506,7 +7506,7 @@
       </c>
       <c r="H40" s="31"/>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="23">
         <v>40</v>
       </c>
@@ -7530,7 +7530,7 @@
       </c>
       <c r="H41" s="31"/>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="23">
         <v>41</v>
       </c>
@@ -7554,7 +7554,7 @@
       </c>
       <c r="H42" s="31"/>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="23">
         <v>42</v>
       </c>
@@ -7578,7 +7578,7 @@
       </c>
       <c r="H43" s="31"/>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="23">
         <v>43</v>
       </c>
@@ -7602,7 +7602,7 @@
       </c>
       <c r="H44" s="31"/>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="23">
         <v>44</v>
       </c>
@@ -7986,7 +7986,7 @@
       </c>
       <c r="H61" s="31"/>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="23">
         <v>61</v>
       </c>
@@ -8010,7 +8010,7 @@
       </c>
       <c r="H62" s="31"/>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="23">
         <v>62</v>
       </c>
@@ -8034,7 +8034,7 @@
       </c>
       <c r="H63" s="31"/>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="23">
         <v>63</v>
       </c>
@@ -8058,7 +8058,7 @@
       </c>
       <c r="H64" s="31"/>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="23">
         <v>64</v>
       </c>
@@ -8082,7 +8082,7 @@
       </c>
       <c r="H65" s="31"/>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="23">
         <v>65</v>
       </c>
@@ -8106,7 +8106,7 @@
       </c>
       <c r="H66" s="31"/>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="23">
         <v>66</v>
       </c>
@@ -8130,7 +8130,7 @@
       </c>
       <c r="H67" s="31"/>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="23">
         <v>67</v>
       </c>
@@ -8154,7 +8154,7 @@
       </c>
       <c r="H68" s="31"/>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="23">
         <v>68</v>
       </c>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="H69" s="31"/>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="23">
         <v>69</v>
       </c>
@@ -8202,7 +8202,7 @@
       </c>
       <c r="H70" s="31"/>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="23">
         <v>70</v>
       </c>
@@ -8226,7 +8226,7 @@
       </c>
       <c r="H71" s="31"/>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="23">
         <v>71</v>
       </c>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="H72" s="31"/>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="23">
         <v>72</v>
       </c>
@@ -8274,7 +8274,7 @@
       </c>
       <c r="H73" s="31"/>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="23">
         <v>73</v>
       </c>
@@ -8298,7 +8298,7 @@
       </c>
       <c r="H74" s="31"/>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="23">
         <v>74</v>
       </c>
@@ -8322,7 +8322,7 @@
       </c>
       <c r="H75" s="31"/>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="23">
         <v>75</v>
       </c>
@@ -8346,7 +8346,7 @@
       </c>
       <c r="H76" s="31"/>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="23">
         <v>76</v>
       </c>
@@ -8370,7 +8370,7 @@
       </c>
       <c r="H77" s="31"/>
     </row>
-    <row r="78" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A78" s="23">
         <v>77</v>
       </c>
@@ -8442,7 +8442,7 @@
       </c>
       <c r="H80" s="31"/>
     </row>
-    <row r="81" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A81" s="23">
         <v>80</v>
       </c>
@@ -8466,7 +8466,7 @@
       </c>
       <c r="H81" s="31"/>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="23">
         <v>81</v>
       </c>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="H82" s="31"/>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="23">
         <v>82</v>
       </c>
@@ -8512,7 +8512,7 @@
       </c>
       <c r="H83" s="31"/>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="23">
         <v>83</v>
       </c>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="H84" s="31"/>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="23">
         <v>84</v>
       </c>
@@ -8560,7 +8560,7 @@
       </c>
       <c r="H85" s="31"/>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="23">
         <v>85</v>
       </c>
@@ -8584,7 +8584,7 @@
       </c>
       <c r="H86" s="31"/>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="23">
         <v>86</v>
       </c>
@@ -8608,7 +8608,7 @@
       </c>
       <c r="H87" s="31"/>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="23">
         <v>87</v>
       </c>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="H88" s="31"/>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="23">
         <v>88</v>
       </c>
@@ -8656,7 +8656,7 @@
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" s="23">
         <v>89</v>
       </c>
@@ -8680,7 +8680,7 @@
       </c>
       <c r="H90" s="31"/>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="23">
         <v>90</v>
       </c>
@@ -8704,7 +8704,7 @@
       </c>
       <c r="H91" s="31"/>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" s="23">
         <v>91</v>
       </c>
@@ -8728,7 +8728,7 @@
       </c>
       <c r="H92" s="31"/>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="23">
         <v>92</v>
       </c>
@@ -8752,7 +8752,7 @@
       </c>
       <c r="H93" s="31"/>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="23">
         <v>93</v>
       </c>
@@ -8776,7 +8776,7 @@
       </c>
       <c r="H94" s="31"/>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="23">
         <v>94</v>
       </c>
@@ -8800,7 +8800,7 @@
       </c>
       <c r="H95" s="31"/>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" s="23">
         <v>95</v>
       </c>
@@ -8824,7 +8824,7 @@
       </c>
       <c r="H96" s="31"/>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="23">
         <v>96</v>
       </c>
@@ -8848,7 +8848,7 @@
       </c>
       <c r="H97" s="31"/>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" s="23">
         <v>97</v>
       </c>
@@ -8872,7 +8872,7 @@
       </c>
       <c r="H98" s="31"/>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="23">
         <v>98</v>
       </c>
@@ -8896,7 +8896,7 @@
       </c>
       <c r="H99" s="31"/>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" s="23">
         <v>99</v>
       </c>
@@ -8920,7 +8920,7 @@
       </c>
       <c r="H100" s="31"/>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" s="23">
         <v>100</v>
       </c>
@@ -8944,7 +8944,7 @@
       </c>
       <c r="H101" s="31"/>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102" s="23">
         <v>101</v>
       </c>
@@ -8968,7 +8968,7 @@
       </c>
       <c r="H102" s="31"/>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103" s="23">
         <v>102</v>
       </c>
@@ -8992,7 +8992,7 @@
       </c>
       <c r="H103" s="31"/>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" s="23">
         <v>103</v>
       </c>
@@ -9016,7 +9016,7 @@
       </c>
       <c r="H104" s="31"/>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" s="23">
         <v>104</v>
       </c>
@@ -9040,7 +9040,7 @@
       </c>
       <c r="H105" s="31"/>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" s="23">
         <v>105</v>
       </c>
@@ -9064,7 +9064,7 @@
       </c>
       <c r="H106" s="31"/>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" s="23">
         <v>106</v>
       </c>
@@ -9086,7 +9086,7 @@
       </c>
       <c r="H107" s="31"/>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A108" s="23">
         <v>107</v>
       </c>
@@ -9110,7 +9110,7 @@
       </c>
       <c r="H108" s="31"/>
     </row>
-    <row r="109" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A109" s="23">
         <v>108</v>
       </c>
@@ -9134,7 +9134,7 @@
       </c>
       <c r="H109" s="31"/>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" s="23">
         <v>109</v>
       </c>
@@ -9464,7 +9464,7 @@
       </c>
       <c r="H123" s="31"/>
     </row>
-    <row r="124" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A124" s="23">
         <v>123</v>
       </c>
@@ -9488,7 +9488,7 @@
       </c>
       <c r="H124" s="31"/>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A125" s="23">
         <v>124</v>
       </c>
@@ -9512,7 +9512,7 @@
       </c>
       <c r="H125" s="31"/>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A126" s="23">
         <v>125</v>
       </c>
@@ -9536,7 +9536,7 @@
       </c>
       <c r="H126" s="31"/>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A127" s="23">
         <v>126</v>
       </c>
@@ -9560,7 +9560,7 @@
       </c>
       <c r="H127" s="31"/>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A128" s="23">
         <v>127</v>
       </c>
@@ -9584,7 +9584,7 @@
       </c>
       <c r="H128" s="31"/>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A129" s="23">
         <v>128</v>
       </c>
@@ -9608,7 +9608,7 @@
       </c>
       <c r="H129" s="31"/>
     </row>
-    <row r="130" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A130" s="23">
         <v>129</v>
       </c>
@@ -9632,7 +9632,7 @@
       </c>
       <c r="H130" s="31"/>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A131" s="23">
         <v>130</v>
       </c>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="H131" s="31"/>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A132" s="23">
         <v>131</v>
       </c>
@@ -9680,7 +9680,7 @@
       </c>
       <c r="H132" s="31"/>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A133" s="23">
         <v>132</v>
       </c>
@@ -9702,7 +9702,7 @@
       </c>
       <c r="H133" s="31"/>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A134" s="23">
         <v>133</v>
       </c>
@@ -9726,7 +9726,7 @@
       </c>
       <c r="H134" s="31"/>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A135" s="23">
         <v>134</v>
       </c>
@@ -9750,7 +9750,7 @@
       </c>
       <c r="H135" s="31"/>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A136" s="23">
         <v>135</v>
       </c>
@@ -9774,7 +9774,7 @@
       </c>
       <c r="H136" s="31"/>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A137" s="23">
         <v>136</v>
       </c>
@@ -9798,7 +9798,7 @@
       </c>
       <c r="H137" s="31"/>
     </row>
-    <row r="138" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A138" s="23">
         <v>137</v>
       </c>
@@ -9822,7 +9822,7 @@
       </c>
       <c r="H138" s="31"/>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A139" s="23">
         <v>138</v>
       </c>
@@ -9846,7 +9846,7 @@
       </c>
       <c r="H139" s="31"/>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A140" s="23">
         <v>139</v>
       </c>
@@ -9870,7 +9870,7 @@
       </c>
       <c r="H140" s="31"/>
     </row>
-    <row r="141" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A141" s="23">
         <v>140</v>
       </c>
@@ -9894,7 +9894,7 @@
       </c>
       <c r="H141" s="31"/>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A142" s="23">
         <v>141</v>
       </c>
@@ -9918,7 +9918,7 @@
       </c>
       <c r="H142" s="31"/>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A143" s="23">
         <v>142</v>
       </c>
@@ -9942,7 +9942,7 @@
       </c>
       <c r="H143" s="31"/>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A144" s="23">
         <v>143</v>
       </c>
@@ -9966,7 +9966,7 @@
       </c>
       <c r="H144" s="31"/>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A145" s="23">
         <v>144</v>
       </c>
@@ -9990,7 +9990,7 @@
       </c>
       <c r="H145" s="31"/>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A146" s="23">
         <v>145</v>
       </c>
@@ -10014,7 +10014,7 @@
       </c>
       <c r="H146" s="31"/>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A147" s="23">
         <v>146</v>
       </c>
@@ -10062,7 +10062,7 @@
       </c>
       <c r="H148" s="31"/>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A149" s="23">
         <v>148</v>
       </c>
@@ -10086,7 +10086,7 @@
       </c>
       <c r="H149" s="31"/>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A150" s="23">
         <v>149</v>
       </c>
@@ -10110,7 +10110,7 @@
       </c>
       <c r="H150" s="31"/>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A151" s="23">
         <v>150</v>
       </c>
@@ -10132,7 +10132,7 @@
       </c>
       <c r="H151" s="31"/>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A152" s="23">
         <v>151</v>
       </c>
@@ -10156,7 +10156,7 @@
       </c>
       <c r="H152" s="31"/>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A153" s="23">
         <v>152</v>
       </c>
@@ -10202,7 +10202,7 @@
       </c>
       <c r="H154" s="31"/>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A155" s="23">
         <v>154</v>
       </c>
@@ -10226,7 +10226,7 @@
       </c>
       <c r="H155" s="31"/>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A156" s="23">
         <v>155</v>
       </c>
@@ -10250,7 +10250,7 @@
       </c>
       <c r="H156" s="31"/>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A157" s="23">
         <v>156</v>
       </c>
@@ -10274,7 +10274,7 @@
       </c>
       <c r="H157" s="31"/>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A158" s="23">
         <v>157</v>
       </c>
@@ -10298,7 +10298,7 @@
       </c>
       <c r="H158" s="31"/>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A159" s="23">
         <v>158</v>
       </c>
@@ -10322,7 +10322,7 @@
       </c>
       <c r="H159" s="31"/>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A160" s="23">
         <v>159</v>
       </c>
@@ -10346,7 +10346,7 @@
       </c>
       <c r="H160" s="31"/>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A161" s="23">
         <v>160</v>
       </c>
@@ -10370,7 +10370,7 @@
       </c>
       <c r="H161" s="31"/>
     </row>
-    <row r="162" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A162" s="23">
         <v>161</v>
       </c>
@@ -10794,7 +10794,7 @@
       </c>
       <c r="H179" s="31"/>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A180" s="23">
         <v>179</v>
       </c>
@@ -10818,7 +10818,7 @@
       </c>
       <c r="H180" s="31"/>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A181" s="23">
         <v>180</v>
       </c>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="H181" s="31"/>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A182" s="23">
         <v>181</v>
       </c>
@@ -10864,7 +10864,7 @@
       </c>
       <c r="H182" s="31"/>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A183" s="23">
         <v>182</v>
       </c>
@@ -10888,7 +10888,7 @@
       </c>
       <c r="H183" s="31"/>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A184" s="23">
         <v>183</v>
       </c>
@@ -10912,7 +10912,7 @@
       </c>
       <c r="H184" s="31"/>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A185" s="23">
         <v>184</v>
       </c>
@@ -10936,7 +10936,7 @@
       </c>
       <c r="H185" s="31"/>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A186" s="23">
         <v>185</v>
       </c>
@@ -10960,7 +10960,7 @@
       </c>
       <c r="H186" s="31"/>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A187" s="23">
         <v>186</v>
       </c>
@@ -10982,7 +10982,7 @@
       </c>
       <c r="H187" s="31"/>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A188" s="23">
         <v>187</v>
       </c>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="H188" s="31"/>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A189" s="23">
         <v>188</v>
       </c>
@@ -11028,7 +11028,7 @@
       </c>
       <c r="H189" s="31"/>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A190" s="23">
         <v>189</v>
       </c>
@@ -11050,7 +11050,7 @@
       </c>
       <c r="H190" s="31"/>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A191" s="23">
         <v>190</v>
       </c>
@@ -11072,7 +11072,7 @@
       </c>
       <c r="H191" s="31"/>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A192" s="23">
         <v>191</v>
       </c>
@@ -11094,7 +11094,7 @@
       </c>
       <c r="H192" s="31"/>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A193" s="23">
         <v>192</v>
       </c>
@@ -11118,7 +11118,7 @@
       </c>
       <c r="H193" s="31"/>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A194" s="23">
         <v>193</v>
       </c>
@@ -11142,7 +11142,7 @@
       </c>
       <c r="H194" s="31"/>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A195" s="23">
         <v>194</v>
       </c>
@@ -11166,7 +11166,7 @@
       </c>
       <c r="H195" s="31"/>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A196" s="23">
         <v>195</v>
       </c>
@@ -11190,7 +11190,7 @@
       </c>
       <c r="H196" s="31"/>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A197" s="23">
         <v>196</v>
       </c>
@@ -11214,7 +11214,7 @@
       </c>
       <c r="H197" s="31"/>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A198" s="23">
         <v>197</v>
       </c>
@@ -11238,7 +11238,7 @@
       </c>
       <c r="H198" s="31"/>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A199" s="23">
         <v>198</v>
       </c>
@@ -11262,7 +11262,7 @@
       </c>
       <c r="H199" s="31"/>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A200" s="23">
         <v>199</v>
       </c>
@@ -11286,7 +11286,7 @@
       </c>
       <c r="H200" s="31"/>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A201" s="23">
         <v>200</v>
       </c>
@@ -11310,7 +11310,7 @@
       </c>
       <c r="H201" s="31"/>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A202" s="23">
         <v>201</v>
       </c>
@@ -11334,7 +11334,7 @@
       </c>
       <c r="H202" s="31"/>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A203" s="23">
         <v>202</v>
       </c>
@@ -11380,7 +11380,7 @@
       </c>
       <c r="H204" s="31"/>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A205" s="23">
         <v>204</v>
       </c>
@@ -11404,7 +11404,7 @@
       </c>
       <c r="H205" s="31"/>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A206" s="23">
         <v>205</v>
       </c>
@@ -11426,7 +11426,7 @@
       </c>
       <c r="H206" s="31"/>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A207" s="23">
         <v>206</v>
       </c>
@@ -11450,7 +11450,7 @@
       </c>
       <c r="H207" s="31"/>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A208" s="23">
         <v>207</v>
       </c>
@@ -11474,7 +11474,7 @@
       </c>
       <c r="H208" s="31"/>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A209" s="23">
         <v>208</v>
       </c>
@@ -11498,7 +11498,7 @@
       </c>
       <c r="H209" s="31"/>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A210" s="23">
         <v>209</v>
       </c>
@@ -11522,7 +11522,7 @@
       </c>
       <c r="H210" s="31"/>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A211" s="23">
         <v>210</v>
       </c>
@@ -11546,7 +11546,7 @@
       </c>
       <c r="H211" s="31"/>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A212" s="23">
         <v>211</v>
       </c>
@@ -11570,7 +11570,7 @@
       </c>
       <c r="H212" s="31"/>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A213" s="23">
         <v>212</v>
       </c>
@@ -11594,7 +11594,7 @@
       </c>
       <c r="H213" s="31"/>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A214" s="23">
         <v>213</v>
       </c>
@@ -11618,7 +11618,7 @@
       </c>
       <c r="H214" s="31"/>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A215" s="23">
         <v>214</v>
       </c>
@@ -11642,7 +11642,7 @@
       </c>
       <c r="H215" s="31"/>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A216" s="23">
         <v>215</v>
       </c>
@@ -11666,7 +11666,7 @@
       </c>
       <c r="H216" s="31"/>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A217" s="23">
         <v>216</v>
       </c>
@@ -11782,7 +11782,7 @@
       </c>
       <c r="H221" s="31"/>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A222" s="23">
         <v>221</v>
       </c>
@@ -11806,7 +11806,7 @@
       </c>
       <c r="H222" s="31"/>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A223" s="23">
         <v>222</v>
       </c>
@@ -11830,7 +11830,7 @@
       </c>
       <c r="H223" s="31"/>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A224" s="23">
         <v>223</v>
       </c>
@@ -11854,7 +11854,7 @@
       </c>
       <c r="H224" s="31"/>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A225" s="23">
         <v>224</v>
       </c>
@@ -11876,7 +11876,7 @@
       </c>
       <c r="H225" s="31"/>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A226" s="23">
         <v>225</v>
       </c>
@@ -11900,7 +11900,7 @@
       </c>
       <c r="H226" s="31"/>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A227" s="23">
         <v>226</v>
       </c>
@@ -11922,7 +11922,7 @@
       </c>
       <c r="H227" s="31"/>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A228" s="23">
         <v>227</v>
       </c>
@@ -11946,7 +11946,7 @@
       </c>
       <c r="H228" s="31"/>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A229" s="23">
         <v>228</v>
       </c>
@@ -11968,7 +11968,7 @@
       </c>
       <c r="H229" s="31"/>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A230" s="23">
         <v>229</v>
       </c>
@@ -11990,7 +11990,7 @@
       </c>
       <c r="H230" s="31"/>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A231" s="23">
         <v>230</v>
       </c>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="H231" s="31"/>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A232" s="23">
         <v>231</v>
       </c>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="H232" s="31"/>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A233" s="23">
         <v>232</v>
       </c>
@@ -12060,7 +12060,7 @@
       </c>
       <c r="H233" s="31"/>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A234" s="23">
         <v>233</v>
       </c>
@@ -12084,7 +12084,7 @@
       </c>
       <c r="H234" s="31"/>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A235" s="23">
         <v>234</v>
       </c>
@@ -12108,7 +12108,7 @@
       </c>
       <c r="H235" s="31"/>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A236" s="23">
         <v>235</v>
       </c>
@@ -12132,7 +12132,7 @@
       </c>
       <c r="H236" s="31"/>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A237" s="23">
         <v>236</v>
       </c>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="H237" s="31"/>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A238" s="23">
         <v>237</v>
       </c>
@@ -12180,7 +12180,7 @@
       </c>
       <c r="H238" s="31"/>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A239" s="23">
         <v>238</v>
       </c>
@@ -12204,7 +12204,7 @@
       </c>
       <c r="H239" s="31"/>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A240" s="23">
         <v>239</v>
       </c>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="H240" s="31"/>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A241" s="23">
         <v>240</v>
       </c>
@@ -12252,7 +12252,7 @@
       </c>
       <c r="H241" s="31"/>
     </row>
-    <row r="242" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A242" s="23">
         <v>241</v>
       </c>
@@ -12276,7 +12276,7 @@
       </c>
       <c r="H242" s="31"/>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A243" s="23">
         <v>242</v>
       </c>
@@ -12300,7 +12300,7 @@
       </c>
       <c r="H243" s="31"/>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A244" s="23">
         <v>243</v>
       </c>
@@ -12324,7 +12324,7 @@
       </c>
       <c r="H244" s="31"/>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A245" s="23">
         <v>244</v>
       </c>
@@ -12348,7 +12348,7 @@
       </c>
       <c r="H245" s="31"/>
     </row>
-    <row r="246" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A246" s="23">
         <v>245</v>
       </c>
@@ -12372,7 +12372,7 @@
       </c>
       <c r="H246" s="31"/>
     </row>
-    <row r="247" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A247" s="23">
         <v>246</v>
       </c>
@@ -12396,7 +12396,7 @@
       </c>
       <c r="H247" s="31"/>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A248" s="23">
         <v>247</v>
       </c>
@@ -12608,7 +12608,7 @@
       </c>
       <c r="H256" s="31"/>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A257" s="23">
         <v>256</v>
       </c>
@@ -12632,7 +12632,7 @@
       </c>
       <c r="H257" s="31"/>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A258" s="23">
         <v>257</v>
       </c>
@@ -12656,7 +12656,7 @@
       </c>
       <c r="H258" s="31"/>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A259" s="23">
         <v>258</v>
       </c>
@@ -12680,7 +12680,7 @@
       </c>
       <c r="H259" s="31"/>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A260" s="23">
         <v>259</v>
       </c>
@@ -12704,7 +12704,7 @@
       </c>
       <c r="H260" s="31"/>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A261" s="23">
         <v>260</v>
       </c>
@@ -12728,7 +12728,7 @@
       </c>
       <c r="H261" s="31"/>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A262" s="23">
         <v>261</v>
       </c>
@@ -12752,7 +12752,7 @@
       </c>
       <c r="H262" s="31"/>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A263" s="23">
         <v>262</v>
       </c>
@@ -12776,7 +12776,7 @@
       </c>
       <c r="H263" s="31"/>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A264" s="23">
         <v>263</v>
       </c>
@@ -13006,7 +13006,7 @@
       </c>
       <c r="H273" s="31"/>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A274" s="23">
         <v>273</v>
       </c>
@@ -13030,7 +13030,7 @@
       </c>
       <c r="H274" s="31"/>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A275" s="23">
         <v>274</v>
       </c>
@@ -13054,7 +13054,7 @@
       </c>
       <c r="H275" s="31"/>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A276" s="23">
         <v>275</v>
       </c>
@@ -13076,7 +13076,7 @@
       </c>
       <c r="H276" s="31"/>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A277" s="23">
         <v>276</v>
       </c>
@@ -13100,7 +13100,7 @@
       </c>
       <c r="H277" s="31"/>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A278" s="23">
         <v>277</v>
       </c>
@@ -13124,7 +13124,7 @@
       </c>
       <c r="H278" s="31"/>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A279" s="23">
         <v>278</v>
       </c>
@@ -13148,7 +13148,7 @@
       </c>
       <c r="H279" s="31"/>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A280" s="23">
         <v>279</v>
       </c>
@@ -13172,7 +13172,7 @@
       </c>
       <c r="H280" s="31"/>
     </row>
-    <row r="281" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A281" s="23">
         <v>280</v>
       </c>
@@ -13196,7 +13196,7 @@
       </c>
       <c r="H281" s="31"/>
     </row>
-    <row r="282" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A282" s="23">
         <v>281</v>
       </c>
@@ -13738,7 +13738,7 @@
       </c>
       <c r="H304" s="31"/>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A305" s="23">
         <v>304</v>
       </c>
@@ -13760,7 +13760,7 @@
       </c>
       <c r="H305" s="31"/>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A306" s="23">
         <v>305</v>
       </c>
@@ -13782,7 +13782,7 @@
       </c>
       <c r="H306" s="31"/>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A307" s="23">
         <v>306</v>
       </c>
@@ -13806,7 +13806,7 @@
       </c>
       <c r="H307" s="31"/>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A308" s="23">
         <v>307</v>
       </c>
@@ -13830,7 +13830,7 @@
       </c>
       <c r="H308" s="31"/>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A309" s="23">
         <v>308</v>
       </c>
@@ -13854,7 +13854,7 @@
       </c>
       <c r="H309" s="31"/>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A310" s="23">
         <v>309</v>
       </c>
@@ -13878,7 +13878,7 @@
       </c>
       <c r="H310" s="31"/>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A311" s="23">
         <v>310</v>
       </c>
@@ -13902,7 +13902,7 @@
       </c>
       <c r="H311" s="31"/>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A312" s="23">
         <v>311</v>
       </c>
@@ -13926,7 +13926,7 @@
       </c>
       <c r="H312" s="31"/>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A313" s="23">
         <v>312</v>
       </c>
@@ -13950,7 +13950,7 @@
       </c>
       <c r="H313" s="31"/>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A314" s="23">
         <v>313</v>
       </c>
@@ -13974,7 +13974,7 @@
       </c>
       <c r="H314" s="31"/>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A315" s="23">
         <v>314</v>
       </c>
@@ -13998,7 +13998,7 @@
       </c>
       <c r="H315" s="31"/>
     </row>
-    <row r="316" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A316" s="23">
         <v>315</v>
       </c>
@@ -14022,7 +14022,7 @@
       </c>
       <c r="H316" s="31"/>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A317" s="23">
         <v>316</v>
       </c>
@@ -14046,7 +14046,7 @@
       </c>
       <c r="H317" s="31"/>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A318" s="23">
         <v>317</v>
       </c>
@@ -14070,7 +14070,7 @@
       </c>
       <c r="H318" s="31"/>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A319" s="23">
         <v>318</v>
       </c>
@@ -14094,7 +14094,7 @@
       </c>
       <c r="H319" s="31"/>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A320" s="23">
         <v>319</v>
       </c>
@@ -14118,7 +14118,7 @@
       </c>
       <c r="H320" s="31"/>
     </row>
-    <row r="321" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A321" s="23">
         <v>320</v>
       </c>
@@ -14142,7 +14142,7 @@
       </c>
       <c r="H321" s="31"/>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A322" s="23">
         <v>321</v>
       </c>
@@ -14164,7 +14164,7 @@
       </c>
       <c r="H322" s="31"/>
     </row>
-    <row r="323" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A323" s="23">
         <v>322</v>
       </c>
@@ -14416,7 +14416,7 @@
       </c>
       <c r="H333" s="31"/>
     </row>
-    <row r="334" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A334" s="23">
         <v>333</v>
       </c>
@@ -14440,7 +14440,7 @@
       </c>
       <c r="H334" s="31"/>
     </row>
-    <row r="335" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A335" s="23">
         <v>334</v>
       </c>
@@ -14464,7 +14464,7 @@
       </c>
       <c r="H335" s="31"/>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A336" s="23">
         <v>335</v>
       </c>
@@ -14488,7 +14488,7 @@
       </c>
       <c r="H336" s="31"/>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A337" s="23">
         <v>336</v>
       </c>
@@ -14512,7 +14512,7 @@
       </c>
       <c r="H337" s="31"/>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A338" s="23">
         <v>337</v>
       </c>
@@ -14536,7 +14536,7 @@
       </c>
       <c r="H338" s="31"/>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A339" s="23">
         <v>338</v>
       </c>
@@ -14560,7 +14560,7 @@
       </c>
       <c r="H339" s="31"/>
     </row>
-    <row r="340" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A340" s="23">
         <v>339</v>
       </c>
@@ -14584,7 +14584,7 @@
       </c>
       <c r="H340" s="31"/>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A341" s="23">
         <v>340</v>
       </c>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="H341" s="31"/>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A342" s="23">
         <v>341</v>
       </c>
@@ -14630,7 +14630,7 @@
       </c>
       <c r="H342" s="31"/>
     </row>
-    <row r="343" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A343" s="23">
         <v>342</v>
       </c>
@@ -14792,7 +14792,7 @@
       </c>
       <c r="H349" s="31"/>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A350" s="23">
         <v>349</v>
       </c>
@@ -14816,7 +14816,7 @@
       </c>
       <c r="H350" s="31"/>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A351" s="23">
         <v>350</v>
       </c>
@@ -14840,7 +14840,7 @@
       </c>
       <c r="H351" s="31"/>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A352" s="23">
         <v>351</v>
       </c>
@@ -14862,7 +14862,7 @@
       </c>
       <c r="H352" s="31"/>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A353" s="23">
         <v>352</v>
       </c>
@@ -14884,7 +14884,7 @@
       </c>
       <c r="H353" s="31"/>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A354" s="23">
         <v>353</v>
       </c>
@@ -14906,7 +14906,7 @@
       </c>
       <c r="H354" s="31"/>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A355" s="23">
         <v>354</v>
       </c>
@@ -14928,7 +14928,7 @@
       </c>
       <c r="H355" s="31"/>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A356" s="23">
         <v>355</v>
       </c>
@@ -14952,7 +14952,7 @@
       </c>
       <c r="H356" s="31"/>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A357" s="23">
         <v>356</v>
       </c>
@@ -14976,7 +14976,7 @@
       </c>
       <c r="H357" s="31"/>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A358" s="23">
         <v>357</v>
       </c>
@@ -15000,7 +15000,7 @@
       </c>
       <c r="H358" s="31"/>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A359" s="23">
         <v>358</v>
       </c>
@@ -15024,7 +15024,7 @@
       </c>
       <c r="H359" s="31"/>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A360" s="23">
         <v>359</v>
       </c>
@@ -15048,7 +15048,7 @@
       </c>
       <c r="H360" s="31"/>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A361" s="23">
         <v>360</v>
       </c>
@@ -15118,7 +15118,7 @@
       </c>
       <c r="H363" s="31"/>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A364" s="23">
         <v>363</v>
       </c>
@@ -15142,7 +15142,7 @@
       </c>
       <c r="H364" s="31"/>
     </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A365" s="23">
         <v>364</v>
       </c>
@@ -15166,7 +15166,7 @@
       </c>
       <c r="H365" s="31"/>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A366" s="23">
         <v>365</v>
       </c>
@@ -15188,7 +15188,7 @@
       </c>
       <c r="H366" s="31"/>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A367" s="23">
         <v>366</v>
       </c>
@@ -15212,7 +15212,7 @@
       </c>
       <c r="H367" s="31"/>
     </row>
-    <row r="368" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A368" s="23">
         <v>367</v>
       </c>
@@ -15236,7 +15236,7 @@
       </c>
       <c r="H368" s="31"/>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A369" s="23">
         <v>368</v>
       </c>
@@ -15260,7 +15260,7 @@
       </c>
       <c r="H369" s="31"/>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A370" s="23">
         <v>369</v>
       </c>
@@ -15284,7 +15284,7 @@
       </c>
       <c r="H370" s="31"/>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A371" s="23">
         <v>370</v>
       </c>
@@ -15308,7 +15308,7 @@
       </c>
       <c r="H371" s="31"/>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A372" s="23">
         <v>371</v>
       </c>
@@ -15332,7 +15332,7 @@
       </c>
       <c r="H372" s="31"/>
     </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A373" s="23">
         <v>372</v>
       </c>
@@ -15378,7 +15378,7 @@
       </c>
       <c r="H374" s="31"/>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A375" s="23">
         <v>374</v>
       </c>
@@ -15402,7 +15402,7 @@
       </c>
       <c r="H375" s="31"/>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A376" s="23">
         <v>375</v>
       </c>
@@ -15426,7 +15426,7 @@
       </c>
       <c r="H376" s="31"/>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A377" s="23">
         <v>376</v>
       </c>
@@ -15448,7 +15448,7 @@
       </c>
       <c r="H377" s="31"/>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A378" s="23">
         <v>377</v>
       </c>
@@ -15470,7 +15470,7 @@
       </c>
       <c r="H378" s="31"/>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A379" s="23">
         <v>378</v>
       </c>
@@ -15492,7 +15492,7 @@
       </c>
       <c r="H379" s="31"/>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A380" s="23">
         <v>379</v>
       </c>
@@ -15516,7 +15516,7 @@
       </c>
       <c r="H380" s="31"/>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A381" s="23">
         <v>380</v>
       </c>
@@ -15540,7 +15540,7 @@
       </c>
       <c r="H381" s="31"/>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A382" s="23">
         <v>381</v>
       </c>
@@ -15564,7 +15564,7 @@
       </c>
       <c r="H382" s="31"/>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A383" s="23">
         <v>382</v>
       </c>
@@ -15588,7 +15588,7 @@
       </c>
       <c r="H383" s="31"/>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A384" s="23">
         <v>383</v>
       </c>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="H384" s="31"/>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A385" s="23">
         <v>384</v>
       </c>
@@ -15636,7 +15636,7 @@
       </c>
       <c r="H385" s="31"/>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A386" s="23">
         <v>385</v>
       </c>
@@ -15660,7 +15660,7 @@
       </c>
       <c r="H386" s="31"/>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A387" s="23">
         <v>386</v>
       </c>
@@ -15684,7 +15684,7 @@
       </c>
       <c r="H387" s="31"/>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A388" s="23">
         <v>387</v>
       </c>
@@ -15708,7 +15708,7 @@
       </c>
       <c r="H388" s="31"/>
     </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A389" s="23">
         <v>388</v>
       </c>
@@ -15732,7 +15732,7 @@
       </c>
       <c r="H389" s="31"/>
     </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A390" s="23">
         <v>389</v>
       </c>
@@ -15756,7 +15756,7 @@
       </c>
       <c r="H390" s="31"/>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A391" s="23">
         <v>390</v>
       </c>
@@ -15780,7 +15780,7 @@
       </c>
       <c r="H391" s="31"/>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A392" s="23">
         <v>391</v>
       </c>
@@ -15804,7 +15804,7 @@
       </c>
       <c r="H392" s="31"/>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A393" s="23">
         <v>392</v>
       </c>
@@ -15850,7 +15850,7 @@
       </c>
       <c r="H394" s="31"/>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A395" s="23">
         <v>394</v>
       </c>
@@ -15874,7 +15874,7 @@
       </c>
       <c r="H395" s="31"/>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A396" s="23">
         <v>395</v>
       </c>
@@ -15898,7 +15898,7 @@
       </c>
       <c r="H396" s="31"/>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A397" s="23">
         <v>396</v>
       </c>
@@ -15922,7 +15922,7 @@
       </c>
       <c r="H397" s="31"/>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A398" s="23">
         <v>397</v>
       </c>
@@ -15946,7 +15946,7 @@
       </c>
       <c r="H398" s="31"/>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A399" s="23">
         <v>398</v>
       </c>
@@ -15970,7 +15970,7 @@
       </c>
       <c r="H399" s="31"/>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A400" s="23">
         <v>399</v>
       </c>
@@ -15994,7 +15994,7 @@
       </c>
       <c r="H400" s="31"/>
     </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A401" s="23">
         <v>400</v>
       </c>
@@ -16018,7 +16018,7 @@
       </c>
       <c r="H401" s="31"/>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A402" s="23">
         <v>401</v>
       </c>
@@ -16042,7 +16042,7 @@
       </c>
       <c r="H402" s="31"/>
     </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A403" s="23">
         <v>402</v>
       </c>
@@ -16066,7 +16066,7 @@
       </c>
       <c r="H403" s="31"/>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A404" s="23">
         <v>403</v>
       </c>
@@ -16090,7 +16090,7 @@
       </c>
       <c r="H404" s="31"/>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A405" s="23">
         <v>404</v>
       </c>
@@ -16114,7 +16114,7 @@
       </c>
       <c r="H405" s="31"/>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A406" s="23">
         <v>405</v>
       </c>
@@ -16138,7 +16138,7 @@
       </c>
       <c r="H406" s="31"/>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A407" s="23">
         <v>406</v>
       </c>
@@ -16162,7 +16162,7 @@
       </c>
       <c r="H407" s="31"/>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A408" s="23">
         <v>407</v>
       </c>
@@ -16186,7 +16186,7 @@
       </c>
       <c r="H408" s="31"/>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A409" s="23">
         <v>408</v>
       </c>
@@ -16208,7 +16208,7 @@
       </c>
       <c r="H409" s="31"/>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A410" s="23">
         <v>409</v>
       </c>
@@ -16232,7 +16232,7 @@
       </c>
       <c r="H410" s="31"/>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A411" s="23">
         <v>410</v>
       </c>
@@ -16256,7 +16256,7 @@
       </c>
       <c r="H411" s="31"/>
     </row>
-    <row r="412" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A412" s="23">
         <v>411</v>
       </c>
@@ -16494,7 +16494,7 @@
       </c>
       <c r="H421" s="31"/>
     </row>
-    <row r="422" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A422" s="23">
         <v>421</v>
       </c>
@@ -16518,7 +16518,7 @@
       </c>
       <c r="H422" s="31"/>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A423" s="23">
         <v>422</v>
       </c>
@@ -16542,7 +16542,7 @@
       </c>
       <c r="H423" s="31"/>
     </row>
-    <row r="424" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A424" s="23">
         <v>423</v>
       </c>
@@ -16566,7 +16566,7 @@
       </c>
       <c r="H424" s="31"/>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A425" s="23">
         <v>424</v>
       </c>
@@ -16588,7 +16588,7 @@
       </c>
       <c r="H425" s="31"/>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A426" s="23">
         <v>425</v>
       </c>
@@ -16612,7 +16612,7 @@
       </c>
       <c r="H426" s="31"/>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A427" s="23">
         <v>426</v>
       </c>
@@ -16634,7 +16634,7 @@
       </c>
       <c r="H427" s="31"/>
     </row>
-    <row r="428" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A428" s="23">
         <v>427</v>
       </c>
@@ -16658,7 +16658,7 @@
       </c>
       <c r="H428" s="31"/>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A429" s="23">
         <v>428</v>
       </c>
@@ -16682,7 +16682,7 @@
       </c>
       <c r="H429" s="31"/>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A430" s="23">
         <v>429</v>
       </c>
@@ -16706,7 +16706,7 @@
       </c>
       <c r="H430" s="31"/>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A431" s="23">
         <v>430</v>
       </c>
@@ -16730,7 +16730,7 @@
       </c>
       <c r="H431" s="31"/>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A432" s="23">
         <v>431</v>
       </c>
@@ -16754,7 +16754,7 @@
       </c>
       <c r="H432" s="31"/>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A433" s="23">
         <v>432</v>
       </c>
@@ -16778,7 +16778,7 @@
       </c>
       <c r="H433" s="31"/>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A434" s="23">
         <v>433</v>
       </c>
@@ -16802,7 +16802,7 @@
       </c>
       <c r="H434" s="31"/>
     </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A435" s="23">
         <v>434</v>
       </c>
@@ -16826,7 +16826,7 @@
       </c>
       <c r="H435" s="31"/>
     </row>
-    <row r="436" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A436" s="23">
         <v>435</v>
       </c>
@@ -16850,7 +16850,7 @@
       </c>
       <c r="H436" s="31"/>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A437" s="23">
         <v>436</v>
       </c>
@@ -16874,7 +16874,7 @@
       </c>
       <c r="H437" s="31"/>
     </row>
-    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A438" s="23">
         <v>437</v>
       </c>
@@ -16898,7 +16898,7 @@
       </c>
       <c r="H438" s="31"/>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A439" s="23">
         <v>438</v>
       </c>
@@ -16922,7 +16922,7 @@
       </c>
       <c r="H439" s="31"/>
     </row>
-    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A440" s="23">
         <v>439</v>
       </c>
@@ -16946,7 +16946,7 @@
       </c>
       <c r="H440" s="31"/>
     </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A441" s="23">
         <v>440</v>
       </c>
@@ -16970,7 +16970,7 @@
       </c>
       <c r="H441" s="31"/>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A442" s="23">
         <v>441</v>
       </c>
@@ -16994,7 +16994,7 @@
       </c>
       <c r="H442" s="31"/>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A443" s="23">
         <v>442</v>
       </c>
@@ -17018,7 +17018,7 @@
       </c>
       <c r="H443" s="31"/>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A444" s="23">
         <v>443</v>
       </c>
@@ -17064,7 +17064,7 @@
       </c>
       <c r="H445" s="31"/>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A446" s="23">
         <v>445</v>
       </c>
@@ -17398,7 +17398,7 @@
       </c>
       <c r="H460" s="31"/>
     </row>
-    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A461" s="23">
         <v>460</v>
       </c>
@@ -17422,7 +17422,7 @@
       </c>
       <c r="H461" s="31"/>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A462" s="23">
         <v>461</v>
       </c>
@@ -17444,7 +17444,7 @@
       </c>
       <c r="H462" s="31"/>
     </row>
-    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A463" s="23">
         <v>462</v>
       </c>
@@ -17468,7 +17468,7 @@
       </c>
       <c r="H463" s="31"/>
     </row>
-    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A464" s="23">
         <v>463</v>
       </c>
@@ -17490,7 +17490,7 @@
       </c>
       <c r="H464" s="31"/>
     </row>
-    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A465" s="23">
         <v>464</v>
       </c>
@@ -17514,7 +17514,7 @@
       </c>
       <c r="H465" s="31"/>
     </row>
-    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A466" s="23">
         <v>465</v>
       </c>
@@ -17536,7 +17536,7 @@
       </c>
       <c r="H466" s="31"/>
     </row>
-    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A467" s="23">
         <v>466</v>
       </c>
@@ -17560,7 +17560,7 @@
       </c>
       <c r="H467" s="31"/>
     </row>
-    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A468" s="23">
         <v>467</v>
       </c>
@@ -17584,7 +17584,7 @@
       </c>
       <c r="H468" s="31"/>
     </row>
-    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A469" s="23">
         <v>468</v>
       </c>
@@ -17608,7 +17608,7 @@
       </c>
       <c r="H469" s="31"/>
     </row>
-    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A470" s="23">
         <v>469</v>
       </c>
@@ -17632,7 +17632,7 @@
       </c>
       <c r="H470" s="31"/>
     </row>
-    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A471" s="23">
         <v>470</v>
       </c>
@@ -17656,7 +17656,7 @@
       </c>
       <c r="H471" s="31"/>
     </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A472" s="23">
         <v>471</v>
       </c>
@@ -17680,7 +17680,7 @@
       </c>
       <c r="H472" s="31"/>
     </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A473" s="23">
         <v>472</v>
       </c>
@@ -17704,7 +17704,7 @@
       </c>
       <c r="H473" s="31"/>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A474" s="23">
         <v>473</v>
       </c>
@@ -17728,7 +17728,7 @@
       </c>
       <c r="H474" s="31"/>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A475" s="23">
         <v>474</v>
       </c>
@@ -17752,7 +17752,7 @@
       </c>
       <c r="H475" s="31"/>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A476" s="23">
         <v>475</v>
       </c>
@@ -17776,7 +17776,7 @@
       </c>
       <c r="H476" s="31"/>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A477" s="23">
         <v>476</v>
       </c>
@@ -17800,7 +17800,7 @@
       </c>
       <c r="H477" s="31"/>
     </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A478" s="23">
         <v>477</v>
       </c>
@@ -17824,7 +17824,7 @@
       </c>
       <c r="H478" s="31"/>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A479" s="23">
         <v>478</v>
       </c>
@@ -17848,7 +17848,7 @@
       </c>
       <c r="H479" s="31"/>
     </row>
-    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A480" s="23">
         <v>479</v>
       </c>
@@ -17872,7 +17872,7 @@
       </c>
       <c r="H480" s="31"/>
     </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A481" s="23">
         <v>480</v>
       </c>
@@ -17896,7 +17896,7 @@
       </c>
       <c r="H481" s="31"/>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A482" s="23">
         <v>481</v>
       </c>
@@ -17920,7 +17920,7 @@
       </c>
       <c r="H482" s="31"/>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A483" s="23">
         <v>482</v>
       </c>
@@ -18034,7 +18034,7 @@
       </c>
       <c r="H487" s="31"/>
     </row>
-    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A488" s="23">
         <v>487</v>
       </c>
@@ -18058,7 +18058,7 @@
       </c>
       <c r="H488" s="31"/>
     </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A489" s="23">
         <v>488</v>
       </c>
@@ -18082,7 +18082,7 @@
       </c>
       <c r="H489" s="31"/>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A490" s="23">
         <v>489</v>
       </c>
@@ -18106,7 +18106,7 @@
       </c>
       <c r="H490" s="31"/>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A491" s="23">
         <v>490</v>
       </c>
@@ -18130,7 +18130,7 @@
       </c>
       <c r="H491" s="31"/>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A492" s="23">
         <v>491</v>
       </c>
@@ -18154,7 +18154,7 @@
       </c>
       <c r="H492" s="31"/>
     </row>
-    <row r="493" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A493" s="23">
         <v>492</v>
       </c>
@@ -18178,7 +18178,7 @@
       </c>
       <c r="H493" s="31"/>
     </row>
-    <row r="494" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A494" s="23">
         <v>493</v>
       </c>
@@ -18202,7 +18202,7 @@
       </c>
       <c r="H494" s="31"/>
     </row>
-    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A495" s="23">
         <v>494</v>
       </c>
@@ -18248,7 +18248,7 @@
       </c>
       <c r="H496" s="31"/>
     </row>
-    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A497" s="23">
         <v>496</v>
       </c>
@@ -18272,7 +18272,7 @@
       </c>
       <c r="H497" s="31"/>
     </row>
-    <row r="498" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A498" s="23">
         <v>497</v>
       </c>
@@ -18296,7 +18296,7 @@
       </c>
       <c r="H498" s="31"/>
     </row>
-    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A499" s="23">
         <v>498</v>
       </c>
@@ -18320,7 +18320,7 @@
       </c>
       <c r="H499" s="31"/>
     </row>
-    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A500" s="23">
         <v>499</v>
       </c>
@@ -18344,7 +18344,7 @@
       </c>
       <c r="H500" s="31"/>
     </row>
-    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A501" s="23">
         <v>500</v>
       </c>
@@ -18368,7 +18368,7 @@
       </c>
       <c r="H501" s="31"/>
     </row>
-    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A502" s="23">
         <v>501</v>
       </c>
@@ -18392,7 +18392,7 @@
       </c>
       <c r="H502" s="31"/>
     </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A503" s="23">
         <v>502</v>
       </c>
@@ -18416,7 +18416,7 @@
       </c>
       <c r="H503" s="31"/>
     </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A504" s="23">
         <v>503</v>
       </c>
@@ -18462,7 +18462,7 @@
       </c>
       <c r="H505" s="31"/>
     </row>
-    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A506" s="23">
         <v>505</v>
       </c>
@@ -18486,7 +18486,7 @@
       </c>
       <c r="H506" s="31"/>
     </row>
-    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A507" s="23">
         <v>506</v>
       </c>
@@ -18508,7 +18508,7 @@
       </c>
       <c r="H507" s="31"/>
     </row>
-    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A508" s="23">
         <v>507</v>
       </c>
@@ -18532,7 +18532,7 @@
       </c>
       <c r="H508" s="31"/>
     </row>
-    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A509" s="23">
         <v>508</v>
       </c>
@@ -18554,7 +18554,7 @@
       </c>
       <c r="H509" s="31"/>
     </row>
-    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A510" s="23">
         <v>509</v>
       </c>
@@ -18578,7 +18578,7 @@
       </c>
       <c r="H510" s="31"/>
     </row>
-    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A511" s="23">
         <v>510</v>
       </c>
@@ -18602,7 +18602,7 @@
       </c>
       <c r="H511" s="31"/>
     </row>
-    <row r="512" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A512" s="23">
         <v>511</v>
       </c>
@@ -18648,7 +18648,7 @@
       </c>
       <c r="H513" s="31"/>
     </row>
-    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A514" s="23">
         <v>513</v>
       </c>
@@ -18672,7 +18672,7 @@
       </c>
       <c r="H514" s="31"/>
     </row>
-    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A515" s="23">
         <v>514</v>
       </c>
@@ -18696,7 +18696,7 @@
       </c>
       <c r="H515" s="31"/>
     </row>
-    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A516" s="23">
         <v>515</v>
       </c>
@@ -18720,7 +18720,7 @@
       </c>
       <c r="H516" s="31"/>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A517" s="23">
         <v>516</v>
       </c>
@@ -18766,7 +18766,7 @@
       </c>
       <c r="H518" s="31"/>
     </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A519" s="23">
         <v>518</v>
       </c>
@@ -18790,7 +18790,7 @@
       </c>
       <c r="H519" s="31"/>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A520" s="23">
         <v>519</v>
       </c>
@@ -18814,7 +18814,7 @@
       </c>
       <c r="H520" s="31"/>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A521" s="23">
         <v>520</v>
       </c>
@@ -18838,7 +18838,7 @@
       </c>
       <c r="H521" s="31"/>
     </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A522" s="23">
         <v>521</v>
       </c>
@@ -18862,7 +18862,7 @@
       </c>
       <c r="H522" s="31"/>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A523" s="23">
         <v>522</v>
       </c>
@@ -18884,7 +18884,7 @@
       </c>
       <c r="H523" s="31"/>
     </row>
-    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A524" s="23">
         <v>523</v>
       </c>
@@ -18908,7 +18908,7 @@
       </c>
       <c r="H524" s="31"/>
     </row>
-    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A525" s="23">
         <v>524</v>
       </c>
@@ -18932,7 +18932,7 @@
       </c>
       <c r="H525" s="31"/>
     </row>
-    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A526" s="23">
         <v>525</v>
       </c>
@@ -18956,7 +18956,7 @@
       </c>
       <c r="H526" s="31"/>
     </row>
-    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A527" s="23">
         <v>526</v>
       </c>
@@ -18980,7 +18980,7 @@
       </c>
       <c r="H527" s="31"/>
     </row>
-    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A528" s="23">
         <v>527</v>
       </c>
@@ -19004,7 +19004,7 @@
       </c>
       <c r="H528" s="31"/>
     </row>
-    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A529" s="23">
         <v>528</v>
       </c>
@@ -19028,7 +19028,7 @@
       </c>
       <c r="H529" s="31"/>
     </row>
-    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A530" s="23">
         <v>529</v>
       </c>
@@ -19052,7 +19052,7 @@
       </c>
       <c r="H530" s="31"/>
     </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A531" s="23">
         <v>530</v>
       </c>
@@ -19076,7 +19076,7 @@
       </c>
       <c r="H531" s="31"/>
     </row>
-    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A532" s="23">
         <v>531</v>
       </c>
@@ -19100,7 +19100,7 @@
       </c>
       <c r="H532" s="31"/>
     </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A533" s="23">
         <v>532</v>
       </c>
@@ -19122,7 +19122,7 @@
       </c>
       <c r="H533" s="31"/>
     </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A534" s="23">
         <v>533</v>
       </c>
@@ -19146,7 +19146,7 @@
       </c>
       <c r="H534" s="31"/>
     </row>
-    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A535" s="23">
         <v>534</v>
       </c>
@@ -19170,7 +19170,7 @@
       </c>
       <c r="H535" s="31"/>
     </row>
-    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A536" s="23">
         <v>535</v>
       </c>
@@ -19194,7 +19194,7 @@
       </c>
       <c r="H536" s="31"/>
     </row>
-    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A537" s="23">
         <v>536</v>
       </c>
@@ -19470,7 +19470,7 @@
       </c>
       <c r="H548" s="31"/>
     </row>
-    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A549" s="23">
         <v>548</v>
       </c>
@@ -19494,7 +19494,7 @@
       </c>
       <c r="H549" s="31"/>
     </row>
-    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A550" s="23">
         <v>549</v>
       </c>
@@ -19518,7 +19518,7 @@
       </c>
       <c r="H550" s="31"/>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A551" s="23">
         <v>550</v>
       </c>
@@ -19540,7 +19540,7 @@
       </c>
       <c r="H551" s="31"/>
     </row>
-    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A552" s="23">
         <v>551</v>
       </c>
@@ -19564,7 +19564,7 @@
       </c>
       <c r="H552" s="31"/>
     </row>
-    <row r="553" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A553" s="23">
         <v>552</v>
       </c>
@@ -19588,7 +19588,7 @@
       </c>
       <c r="H553" s="31"/>
     </row>
-    <row r="554" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A554" s="23">
         <v>553</v>
       </c>
@@ -19612,7 +19612,7 @@
       </c>
       <c r="H554" s="31"/>
     </row>
-    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A555" s="23">
         <v>554</v>
       </c>
@@ -19658,7 +19658,7 @@
       </c>
       <c r="H556" s="31"/>
     </row>
-    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A557" s="23">
         <v>556</v>
       </c>
@@ -19682,7 +19682,7 @@
       </c>
       <c r="H557" s="31"/>
     </row>
-    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A558" s="23">
         <v>557</v>
       </c>
@@ -19706,7 +19706,7 @@
       </c>
       <c r="H558" s="31"/>
     </row>
-    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A559" s="23">
         <v>558</v>
       </c>
@@ -19730,7 +19730,7 @@
       </c>
       <c r="H559" s="31"/>
     </row>
-    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A560" s="23">
         <v>559</v>
       </c>
@@ -19754,7 +19754,7 @@
       </c>
       <c r="H560" s="31"/>
     </row>
-    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A561" s="23">
         <v>560</v>
       </c>
@@ -19778,7 +19778,7 @@
       </c>
       <c r="H561" s="31"/>
     </row>
-    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A562" s="23">
         <v>561</v>
       </c>
@@ -19802,7 +19802,7 @@
       </c>
       <c r="H562" s="31"/>
     </row>
-    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A563" s="23">
         <v>562</v>
       </c>
@@ -19848,7 +19848,7 @@
       </c>
       <c r="H564" s="31"/>
     </row>
-    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A565" s="23">
         <v>564</v>
       </c>
@@ -19870,7 +19870,7 @@
       </c>
       <c r="H565" s="31"/>
     </row>
-    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A566" s="23">
         <v>565</v>
       </c>
@@ -19892,7 +19892,7 @@
       </c>
       <c r="H566" s="31"/>
     </row>
-    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A567" s="23">
         <v>566</v>
       </c>
@@ -19916,7 +19916,7 @@
       </c>
       <c r="H567" s="31"/>
     </row>
-    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A568" s="23">
         <v>567</v>
       </c>
@@ -19940,7 +19940,7 @@
       </c>
       <c r="H568" s="31"/>
     </row>
-    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A569" s="23">
         <v>568</v>
       </c>
@@ -19964,7 +19964,7 @@
       </c>
       <c r="H569" s="31"/>
     </row>
-    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A570" s="23">
         <v>569</v>
       </c>
@@ -19988,7 +19988,7 @@
       </c>
       <c r="H570" s="31"/>
     </row>
-    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A571" s="23">
         <v>570</v>
       </c>
@@ -20012,7 +20012,7 @@
       </c>
       <c r="H571" s="31"/>
     </row>
-    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A572" s="23">
         <v>571</v>
       </c>
@@ -20036,7 +20036,7 @@
       </c>
       <c r="H572" s="31"/>
     </row>
-    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A573" s="23">
         <v>572</v>
       </c>
@@ -20060,7 +20060,7 @@
       </c>
       <c r="H573" s="31"/>
     </row>
-    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A574" s="23">
         <v>573</v>
       </c>
@@ -20084,7 +20084,7 @@
       </c>
       <c r="H574" s="31"/>
     </row>
-    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A575" s="23">
         <v>574</v>
       </c>
@@ -20108,7 +20108,7 @@
       </c>
       <c r="H575" s="31"/>
     </row>
-    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A576" s="23">
         <v>575</v>
       </c>
@@ -20132,7 +20132,7 @@
       </c>
       <c r="H576" s="31"/>
     </row>
-    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A577" s="23">
         <v>576</v>
       </c>
@@ -20156,7 +20156,7 @@
       </c>
       <c r="H577" s="31"/>
     </row>
-    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A578" s="23">
         <v>577</v>
       </c>
@@ -20180,7 +20180,7 @@
       </c>
       <c r="H578" s="31"/>
     </row>
-    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A579" s="23">
         <v>578</v>
       </c>
@@ -20204,7 +20204,7 @@
       </c>
       <c r="H579" s="31"/>
     </row>
-    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A580" s="23">
         <v>579</v>
       </c>
@@ -20228,7 +20228,7 @@
       </c>
       <c r="H580" s="31"/>
     </row>
-    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A581" s="23">
         <v>580</v>
       </c>
@@ -20252,7 +20252,7 @@
       </c>
       <c r="H581" s="31"/>
     </row>
-    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A582" s="23">
         <v>581</v>
       </c>
@@ -20276,7 +20276,7 @@
       </c>
       <c r="H582" s="31"/>
     </row>
-    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A583" s="23">
         <v>582</v>
       </c>
@@ -20300,7 +20300,7 @@
       </c>
       <c r="H583" s="31"/>
     </row>
-    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A584" s="23">
         <v>583</v>
       </c>
@@ -20324,7 +20324,7 @@
       </c>
       <c r="H584" s="31"/>
     </row>
-    <row r="585" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A585" s="23">
         <v>584</v>
       </c>
@@ -20348,7 +20348,7 @@
       </c>
       <c r="H585" s="31"/>
     </row>
-    <row r="586" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A586" s="23">
         <v>585</v>
       </c>
@@ -20372,7 +20372,7 @@
       </c>
       <c r="H586" s="31"/>
     </row>
-    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A587" s="23">
         <v>586</v>
       </c>
@@ -20394,7 +20394,7 @@
       </c>
       <c r="H587" s="31"/>
     </row>
-    <row r="588" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A588" s="23">
         <v>587</v>
       </c>
@@ -20698,7 +20698,7 @@
       </c>
       <c r="H600" s="31"/>
     </row>
-    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A601" s="23">
         <v>600</v>
       </c>
@@ -20722,7 +20722,7 @@
       </c>
       <c r="H601" s="31"/>
     </row>
-    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A602" s="23">
         <v>601</v>
       </c>
@@ -20746,7 +20746,7 @@
       </c>
       <c r="H602" s="31"/>
     </row>
-    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A603" s="23">
         <v>602</v>
       </c>
@@ -20770,7 +20770,7 @@
       </c>
       <c r="H603" s="31"/>
     </row>
-    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A604" s="23">
         <v>603</v>
       </c>
@@ -20794,7 +20794,7 @@
       </c>
       <c r="H604" s="31"/>
     </row>
-    <row r="605" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A605" s="23">
         <v>604</v>
       </c>
@@ -20818,7 +20818,7 @@
       </c>
       <c r="H605" s="31"/>
     </row>
-    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A606" s="23">
         <v>605</v>
       </c>
@@ -20842,7 +20842,7 @@
       </c>
       <c r="H606" s="31"/>
     </row>
-    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A607" s="23">
         <v>606</v>
       </c>
@@ -20866,7 +20866,7 @@
       </c>
       <c r="H607" s="31"/>
     </row>
-    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A608" s="23">
         <v>607</v>
       </c>
@@ -20890,7 +20890,7 @@
       </c>
       <c r="H608" s="31"/>
     </row>
-    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A609" s="23">
         <v>608</v>
       </c>
@@ -20914,7 +20914,7 @@
       </c>
       <c r="H609" s="31"/>
     </row>
-    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A610" s="23">
         <v>609</v>
       </c>
@@ -20938,7 +20938,7 @@
       </c>
       <c r="H610" s="31"/>
     </row>
-    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A611" s="23">
         <v>610</v>
       </c>
@@ -20962,7 +20962,7 @@
       </c>
       <c r="H611" s="31"/>
     </row>
-    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A612" s="23">
         <v>611</v>
       </c>
@@ -20986,7 +20986,7 @@
       </c>
       <c r="H612" s="31"/>
     </row>
-    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A613" s="23">
         <v>612</v>
       </c>
@@ -21010,7 +21010,7 @@
       </c>
       <c r="H613" s="31"/>
     </row>
-    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A614" s="23">
         <v>613</v>
       </c>
@@ -21034,7 +21034,7 @@
       </c>
       <c r="H614" s="31"/>
     </row>
-    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A615" s="23">
         <v>614</v>
       </c>
@@ -21058,7 +21058,7 @@
       </c>
       <c r="H615" s="31"/>
     </row>
-    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A616" s="23">
         <v>615</v>
       </c>
@@ -21082,7 +21082,7 @@
       </c>
       <c r="H616" s="31"/>
     </row>
-    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A617" s="23">
         <v>616</v>
       </c>
@@ -21106,7 +21106,7 @@
       </c>
       <c r="H617" s="31"/>
     </row>
-    <row r="618" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:8" ht="60" x14ac:dyDescent="0.15">
       <c r="A618" s="23">
         <v>617</v>
       </c>
@@ -21152,7 +21152,7 @@
       </c>
       <c r="H619" s="31"/>
     </row>
-    <row r="620" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A620" s="23">
         <v>619</v>
       </c>
@@ -21176,7 +21176,7 @@
       </c>
       <c r="H620" s="31"/>
     </row>
-    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A621" s="23">
         <v>620</v>
       </c>
@@ -21200,7 +21200,7 @@
       </c>
       <c r="H621" s="31"/>
     </row>
-    <row r="622" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A622" s="23">
         <v>621</v>
       </c>
@@ -21224,7 +21224,7 @@
       </c>
       <c r="H622" s="31"/>
     </row>
-    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A623" s="23">
         <v>622</v>
       </c>
@@ -21248,7 +21248,7 @@
       </c>
       <c r="H623" s="31"/>
     </row>
-    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A624" s="23">
         <v>623</v>
       </c>
@@ -21272,7 +21272,7 @@
       </c>
       <c r="H624" s="31"/>
     </row>
-    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A625" s="23">
         <v>624</v>
       </c>
@@ -21296,7 +21296,7 @@
       </c>
       <c r="H625" s="31"/>
     </row>
-    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A626" s="23">
         <v>625</v>
       </c>
@@ -21500,7 +21500,7 @@
       </c>
       <c r="H634" s="31"/>
     </row>
-    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A635" s="23">
         <v>634</v>
       </c>
@@ -21524,7 +21524,7 @@
       </c>
       <c r="H635" s="31"/>
     </row>
-    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A636" s="23">
         <v>635</v>
       </c>
@@ -21548,7 +21548,7 @@
       </c>
       <c r="H636" s="31"/>
     </row>
-    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A637" s="23">
         <v>636</v>
       </c>
@@ -21572,7 +21572,7 @@
       </c>
       <c r="H637" s="31"/>
     </row>
-    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A638" s="23">
         <v>637</v>
       </c>
@@ -21596,7 +21596,7 @@
       </c>
       <c r="H638" s="31"/>
     </row>
-    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A639" s="23">
         <v>638</v>
       </c>
@@ -21620,7 +21620,7 @@
       </c>
       <c r="H639" s="31"/>
     </row>
-    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A640" s="23">
         <v>639</v>
       </c>
@@ -21644,7 +21644,7 @@
       </c>
       <c r="H640" s="31"/>
     </row>
-    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A641" s="23">
         <v>640</v>
       </c>
@@ -21690,7 +21690,7 @@
       </c>
       <c r="H642" s="31"/>
     </row>
-    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A643" s="23">
         <v>642</v>
       </c>
@@ -21714,7 +21714,7 @@
       </c>
       <c r="H643" s="31"/>
     </row>
-    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A644" s="23">
         <v>643</v>
       </c>
@@ -21736,7 +21736,7 @@
       </c>
       <c r="H644" s="31"/>
     </row>
-    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A645" s="23">
         <v>644</v>
       </c>
@@ -21758,7 +21758,7 @@
       </c>
       <c r="H645" s="31"/>
     </row>
-    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A646" s="23">
         <v>645</v>
       </c>
@@ -21780,7 +21780,7 @@
       </c>
       <c r="H646" s="31"/>
     </row>
-    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A647" s="23">
         <v>646</v>
       </c>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="H647" s="31"/>
     </row>
-    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A648" s="23">
         <v>647</v>
       </c>
@@ -21828,7 +21828,7 @@
       </c>
       <c r="H648" s="31"/>
     </row>
-    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A649" s="23">
         <v>648</v>
       </c>
@@ -21852,7 +21852,7 @@
       </c>
       <c r="H649" s="31"/>
     </row>
-    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A650" s="23">
         <v>649</v>
       </c>
@@ -21898,7 +21898,7 @@
       </c>
       <c r="H651" s="31"/>
     </row>
-    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A652" s="23">
         <v>651</v>
       </c>
@@ -21922,7 +21922,7 @@
       </c>
       <c r="H652" s="31"/>
     </row>
-    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A653" s="23">
         <v>652</v>
       </c>
@@ -22082,7 +22082,7 @@
       </c>
       <c r="H659" s="31"/>
     </row>
-    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A660" s="23">
         <v>659</v>
       </c>
@@ -22106,7 +22106,7 @@
       </c>
       <c r="H660" s="31"/>
     </row>
-    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A661" s="23">
         <v>660</v>
       </c>
@@ -22130,7 +22130,7 @@
       </c>
       <c r="H661" s="31"/>
     </row>
-    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A662" s="23">
         <v>661</v>
       </c>
@@ -22154,7 +22154,7 @@
       </c>
       <c r="H662" s="31"/>
     </row>
-    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A663" s="23">
         <v>662</v>
       </c>
@@ -22178,7 +22178,7 @@
       </c>
       <c r="H663" s="31"/>
     </row>
-    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A664" s="23">
         <v>663</v>
       </c>
@@ -22200,7 +22200,7 @@
       </c>
       <c r="H664" s="31"/>
     </row>
-    <row r="665" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A665" s="23">
         <v>664</v>
       </c>
@@ -22224,7 +22224,7 @@
       </c>
       <c r="H665" s="31"/>
     </row>
-    <row r="666" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A666" s="23">
         <v>665</v>
       </c>
@@ -22248,7 +22248,7 @@
       </c>
       <c r="H666" s="31"/>
     </row>
-    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A667" s="23">
         <v>666</v>
       </c>
@@ -22272,7 +22272,7 @@
       </c>
       <c r="H667" s="31"/>
     </row>
-    <row r="668" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A668" s="23">
         <v>667</v>
       </c>
@@ -22296,7 +22296,7 @@
       </c>
       <c r="H668" s="31"/>
     </row>
-    <row r="669" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A669" s="23">
         <v>668</v>
       </c>
@@ -22320,7 +22320,7 @@
       </c>
       <c r="H669" s="31"/>
     </row>
-    <row r="670" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A670" s="23">
         <v>669</v>
       </c>
@@ -22344,7 +22344,7 @@
       </c>
       <c r="H670" s="31"/>
     </row>
-    <row r="671" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A671" s="23">
         <v>670</v>
       </c>
@@ -22368,7 +22368,7 @@
       </c>
       <c r="H671" s="31"/>
     </row>
-    <row r="672" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A672" s="23">
         <v>671</v>
       </c>
@@ -22390,7 +22390,7 @@
       </c>
       <c r="H672" s="31"/>
     </row>
-    <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A673" s="23">
         <v>672</v>
       </c>
@@ -22414,7 +22414,7 @@
       </c>
       <c r="H673" s="31"/>
     </row>
-    <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A674" s="23">
         <v>673</v>
       </c>
@@ -22460,7 +22460,7 @@
       </c>
       <c r="H675" s="31"/>
     </row>
-    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A676" s="23">
         <v>675</v>
       </c>
@@ -22484,7 +22484,7 @@
       </c>
       <c r="H676" s="31"/>
     </row>
-    <row r="677" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A677" s="23">
         <v>676</v>
       </c>
@@ -22508,7 +22508,7 @@
       </c>
       <c r="H677" s="31"/>
     </row>
-    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A678" s="23">
         <v>677</v>
       </c>
@@ -22532,7 +22532,7 @@
       </c>
       <c r="H678" s="31"/>
     </row>
-    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A679" s="23">
         <v>678</v>
       </c>
@@ -22556,7 +22556,7 @@
       </c>
       <c r="H679" s="31"/>
     </row>
-    <row r="680" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A680" s="23">
         <v>679</v>
       </c>
@@ -22580,7 +22580,7 @@
       </c>
       <c r="H680" s="31"/>
     </row>
-    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A681" s="23">
         <v>680</v>
       </c>
@@ -22604,7 +22604,7 @@
       </c>
       <c r="H681" s="31"/>
     </row>
-    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A682" s="23">
         <v>681</v>
       </c>
@@ -22628,7 +22628,7 @@
       </c>
       <c r="H682" s="31"/>
     </row>
-    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A683" s="23">
         <v>682</v>
       </c>
@@ -22652,7 +22652,7 @@
       </c>
       <c r="H683" s="31"/>
     </row>
-    <row r="684" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A684" s="23">
         <v>683</v>
       </c>
@@ -22676,7 +22676,7 @@
       </c>
       <c r="H684" s="31"/>
     </row>
-    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A685" s="23">
         <v>684</v>
       </c>
@@ -22700,7 +22700,7 @@
       </c>
       <c r="H685" s="31"/>
     </row>
-    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A686" s="23">
         <v>685</v>
       </c>
@@ -22724,7 +22724,7 @@
       </c>
       <c r="H686" s="31"/>
     </row>
-    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A687" s="23">
         <v>686</v>
       </c>
@@ -22770,7 +22770,7 @@
       </c>
       <c r="H688" s="31"/>
     </row>
-    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A689" s="23">
         <v>688</v>
       </c>
@@ -22794,7 +22794,7 @@
       </c>
       <c r="H689" s="31"/>
     </row>
-    <row r="690" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A690" s="23">
         <v>689</v>
       </c>
@@ -22818,7 +22818,7 @@
       </c>
       <c r="H690" s="31"/>
     </row>
-    <row r="691" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A691" s="23">
         <v>690</v>
       </c>
@@ -22842,7 +22842,7 @@
       </c>
       <c r="H691" s="31"/>
     </row>
-    <row r="692" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A692" s="23">
         <v>691</v>
       </c>
@@ -22866,7 +22866,7 @@
       </c>
       <c r="H692" s="31"/>
     </row>
-    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A693" s="23">
         <v>692</v>
       </c>
@@ -22890,7 +22890,7 @@
       </c>
       <c r="H693" s="31"/>
     </row>
-    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A694" s="23">
         <v>693</v>
       </c>
@@ -22914,7 +22914,7 @@
       </c>
       <c r="H694" s="31"/>
     </row>
-    <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A695" s="23">
         <v>694</v>
       </c>
@@ -22938,7 +22938,7 @@
       </c>
       <c r="H695" s="31"/>
     </row>
-    <row r="696" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A696" s="23">
         <v>695</v>
       </c>
@@ -22962,7 +22962,7 @@
       </c>
       <c r="H696" s="31"/>
     </row>
-    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A697" s="23">
         <v>696</v>
       </c>
@@ -22986,7 +22986,7 @@
       </c>
       <c r="H697" s="31"/>
     </row>
-    <row r="698" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A698" s="23">
         <v>697</v>
       </c>
@@ -23008,7 +23008,7 @@
       </c>
       <c r="H698" s="31"/>
     </row>
-    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A699" s="23">
         <v>698</v>
       </c>
@@ -23032,7 +23032,7 @@
       </c>
       <c r="H699" s="31"/>
     </row>
-    <row r="700" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A700" s="23">
         <v>699</v>
       </c>
@@ -23056,7 +23056,7 @@
       </c>
       <c r="H700" s="31"/>
     </row>
-    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A701" s="23">
         <v>700</v>
       </c>
@@ -23080,7 +23080,7 @@
       </c>
       <c r="H701" s="31"/>
     </row>
-    <row r="702" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A702" s="23">
         <v>701</v>
       </c>
@@ -23104,7 +23104,7 @@
       </c>
       <c r="H702" s="31"/>
     </row>
-    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A703" s="23">
         <v>702</v>
       </c>
@@ -23128,7 +23128,7 @@
       </c>
       <c r="H703" s="31"/>
     </row>
-    <row r="704" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A704" s="23">
         <v>703</v>
       </c>
@@ -23150,7 +23150,7 @@
       </c>
       <c r="H704" s="31"/>
     </row>
-    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A705" s="23">
         <v>704</v>
       </c>
@@ -23174,7 +23174,7 @@
       </c>
       <c r="H705" s="31"/>
     </row>
-    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A706" s="23">
         <v>705</v>
       </c>
@@ -23198,7 +23198,7 @@
       </c>
       <c r="H706" s="31"/>
     </row>
-    <row r="707" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A707" s="23">
         <v>706</v>
       </c>
@@ -23222,7 +23222,7 @@
       </c>
       <c r="H707" s="31"/>
     </row>
-    <row r="708" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A708" s="23">
         <v>707</v>
       </c>
@@ -23248,16 +23248,6 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:G708" xr:uid="{5148A92F-9FDD-4774-B097-8B36D7568654}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="工具型"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="被动指数基金"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G705">
       <sortCondition ref="E1:E705"/>
     </sortState>
